--- a/data/trans_bre/P15A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.062367100127617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.464973023572856</v>
+        <v>1.464973023572855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2017742942864688</v>
@@ -649,7 +649,7 @@
         <v>0.5077412159446466</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5362407986051023</v>
+        <v>0.5362407986051021</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.658500046527297</v>
+        <v>-3.770495802779778</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.62886225758147</v>
+        <v>-4.440563867310146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.369162582080282</v>
+        <v>-1.404872841657913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.155075619974704</v>
+        <v>-0.848757471156651</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7578025731505421</v>
+        <v>-0.7835881533467962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8015888463994965</v>
+        <v>-0.8389381536691947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5285019255604282</v>
+        <v>-0.5366984531676183</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3205353725168852</v>
+        <v>-0.243456552429387</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.535951297674668</v>
+        <v>2.443346338568562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.387562926065798</v>
+        <v>1.144392575909786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.88487595076748</v>
+        <v>4.196800729722735</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.643578011997765</v>
+        <v>3.534755680025677</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.314048546646747</v>
+        <v>1.362918077334863</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7124233400298619</v>
+        <v>0.4806003729452392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.686344204147495</v>
+        <v>4.251523081611086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.483663984063013</v>
+        <v>2.248528219977559</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.500275692506283</v>
+        <v>-1.601973388449372</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.577224557213172</v>
+        <v>-2.571872135391913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.68793672149215</v>
+        <v>-1.614726170554327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.552592699105101</v>
+        <v>-1.532290827685932</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6197354715464021</v>
+        <v>-0.651494856627122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7868502054175582</v>
+        <v>-0.8141779874217567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8829334392511712</v>
+        <v>-0.8670637923611704</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4629129161726478</v>
+        <v>-0.4170143005023708</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.819455862391392</v>
+        <v>1.721001705384275</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8602864135997133</v>
+        <v>0.8538985274874946</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8413502958480173</v>
+        <v>0.9230147997762623</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.492599296965398</v>
+        <v>2.649545957440531</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.437718329427589</v>
+        <v>2.174035202419528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7976491051824091</v>
+        <v>0.8241416820439167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.215443739124874</v>
+        <v>2.652122931311248</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.142186179339122</v>
+        <v>2.772457032563923</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.690259329437874</v>
+        <v>-7.885655176732906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.116327618271571</v>
+        <v>-2.994337398229635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.895910162055689</v>
+        <v>-4.57418574248766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.694226925662225</v>
+        <v>-1.938460784419679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9464624194944422</v>
+        <v>-0.9518710182822145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4874927242475459</v>
+        <v>-0.5105747307470216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8764813229139772</v>
+        <v>-0.8503790634220489</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5205881685020928</v>
+        <v>-0.57144032195314</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.702100958563292</v>
+        <v>-1.94378530292839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.869463391720504</v>
+        <v>3.900456904730305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3481125787111176</v>
+        <v>0.1224215167801817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.289280477276638</v>
+        <v>2.125885252218002</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3577904224349981</v>
+        <v>-0.395204605915978</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.175568561232564</v>
+        <v>1.229466742390927</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2553846399468854</v>
+        <v>0.1711689882921009</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.489968197316531</v>
+        <v>2.00659443279077</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.07842216639069909</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3678032681600619</v>
+        <v>-0.3678032681600618</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.256508780181974</v>
+        <v>-5.292662398713783</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.722511143931817</v>
+        <v>-4.522681887953111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.804445082036775</v>
+        <v>-2.646671183937786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.866671470483286</v>
+        <v>-4.92987602023384</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7786281213723701</v>
+        <v>-0.7772646166187295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8419149834131258</v>
+        <v>-0.8219973478502267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4702174198018339</v>
+        <v>-0.4569406281025447</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.887224744267228</v>
+        <v>-0.8950623467095461</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2298882054683044</v>
+        <v>0.2663883464561196</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5082306749501815</v>
+        <v>0.4278810057681122</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.801265827256786</v>
+        <v>3.845510847055622</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.812123943598248</v>
+        <v>1.80381234069507</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0990117000693807</v>
+        <v>0.2261047355379604</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3268239166091634</v>
+        <v>0.2746305890454969</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.500375428069064</v>
+        <v>1.465443206351784</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.767410006760582</v>
+        <v>2.188588817606978</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.125863033541573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.9491932559000203</v>
+        <v>-0.9491932559000206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04421766508658782</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4238080332991817</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.8041054165708761</v>
+        <v>-0.8041054165708762</v>
       </c>
     </row>
     <row r="17">
@@ -1060,24 +1060,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.621762186691958</v>
+        <v>-3.227051296836409</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.592049384525656</v>
+        <v>-2.558829458438479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.868268683306136</v>
+        <v>-3.463887731462775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.094178720367298</v>
+        <v>-3.100623675386175</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7112512188900452</v>
+        <v>-0.6690829808962467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.58820568450179</v>
-      </c>
-      <c r="I17" s="6" t="inlineStr"/>
+        <v>-0.5738175670080051</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1088,24 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.115113466779865</v>
+        <v>4.371053786008331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.416275327892402</v>
+        <v>4.604858583958798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.653743328418229</v>
+        <v>1.594555508029358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.185751371397005</v>
+        <v>0.01998372113695917</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.055797775650418</v>
+        <v>2.807486494224951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.424614086878282</v>
-      </c>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>3.100824811361987</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.41541057000828</v>
+      </c>
       <c r="J18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1129,7 +1133,7 @@
         <v>3.426356777038336</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.925816848632025</v>
+        <v>1.925816848632023</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1607965674898944</v>
@@ -1141,7 +1145,7 @@
         <v>0.5843887113978866</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5689794974571194</v>
+        <v>0.5689794974571187</v>
       </c>
     </row>
     <row r="20">
@@ -1152,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.689217886908194</v>
+        <v>-2.526419335167701</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4098071843495121</v>
+        <v>0.3421726097870046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.9268025277272501</v>
+        <v>-1.050884446690408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.6645218309403988</v>
+        <v>-0.8227054711525024</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5995177160600383</v>
+        <v>-0.5526195881170316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1170840778570077</v>
+        <v>-0.1034988566164798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1428155892596795</v>
+        <v>-0.1527348986753309</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1664207048257828</v>
+        <v>-0.2050736146946352</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.656055701437503</v>
+        <v>3.729760828886944</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.465827145248652</v>
+        <v>7.538648873771544</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.789168670042534</v>
+        <v>8.165107165045004</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.569723529463356</v>
+        <v>4.537479848087619</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.101201913324882</v>
+        <v>2.353955211685493</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.926529172518704</v>
+        <v>6.456182009440038</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.951272876010323</v>
+        <v>2.260763449965474</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.050215836317574</v>
+        <v>2.01317733634009</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1233,7 @@
         <v>-0.413022669903661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7977867263980664</v>
+        <v>0.797786726398067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3495738939187827</v>
@@ -1241,7 +1245,7 @@
         <v>-0.3315242513398042</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3597391507593197</v>
+        <v>0.3597391507593201</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.625652671203942</v>
+        <v>-3.656323856025379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.770381903371902</v>
+        <v>-2.547969178779715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.647096010770149</v>
+        <v>-1.732639548558649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9783902801237048</v>
+        <v>-1.31274145650491</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6614256381789915</v>
+        <v>-0.6490218998198022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5942561362466579</v>
+        <v>-0.5609068363246499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8477583295230456</v>
+        <v>-0.8940037179159844</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3255447826634256</v>
+        <v>-0.3900623567292335</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6198706009173905</v>
+        <v>0.5866872539732559</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.172623984206598</v>
+        <v>1.344541608725427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6686539892775244</v>
+        <v>0.7982683817907298</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.354445166701109</v>
+        <v>2.355129905696894</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1984837470183591</v>
+        <v>0.1994996599788239</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5178720058706655</v>
+        <v>0.6734589619832022</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.601418545445618</v>
+        <v>1.303410806864479</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.726492048628101</v>
+        <v>1.772380403797077</v>
       </c>
     </row>
     <row r="25">
@@ -1352,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.98164443196116</v>
+        <v>-1.890079279370354</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.5955797203597657</v>
+        <v>-0.7211413556425075</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.907033134942355</v>
+        <v>-1.970988828498337</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.153087341194234</v>
+        <v>-1.929830697975119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4315632625021313</v>
+        <v>-0.4531650944552107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4354851617197641</v>
+        <v>-0.4489717743745589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6392916358487264</v>
+        <v>-0.646724913674619</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6244164756412257</v>
+        <v>-0.6060786994689833</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.773070496871259</v>
+        <v>1.880795511613713</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.960857815444071</v>
+        <v>1.973496020892747</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9678381090615424</v>
+        <v>0.9435027151292019</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9663506833307822</v>
+        <v>1.066035942607811</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7470668276748011</v>
+        <v>0.7484482089102266</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.084362793984073</v>
+        <v>3.191013430271814</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.638829786657479</v>
+        <v>0.6894331563449857</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7785437920530145</v>
+        <v>0.8345082048753433</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1433,7 @@
         <v>-0.1564187685554639</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.331320906680218</v>
+        <v>0.3313209066802183</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.2609806728110414</v>
@@ -1441,7 +1445,7 @@
         <v>-0.05958184178642108</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1421467479811015</v>
+        <v>0.1421467479811017</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.863488035422201</v>
+        <v>-1.820263526764278</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9519785177997051</v>
+        <v>-0.9945777883986212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9835127791409757</v>
+        <v>-0.8917232177573206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4115432855571462</v>
+        <v>-0.3911738464739645</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4389529851420423</v>
+        <v>-0.4307174132605491</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2890712001453891</v>
+        <v>-0.2957880747240462</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3291581750583808</v>
+        <v>-0.2940237011968156</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1427588792632745</v>
+        <v>-0.1428755370837963</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.07374099512268341</v>
+        <v>-0.1141873058886405</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7334943853481712</v>
+        <v>0.7183288362551769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5475056012354222</v>
+        <v>0.6127252754384429</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.05421976833912</v>
+        <v>1.032906058792599</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.01360634543437068</v>
+        <v>-0.02272933965689299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.290901746072637</v>
+        <v>0.3041801098265073</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2401544959597448</v>
+        <v>0.2754112844124136</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5663440216047487</v>
+        <v>0.5665649624379876</v>
       </c>
     </row>
     <row r="31">
